--- a/실험시간 정리.xlsx
+++ b/실험시간 정리.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\유희찬\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://handong0-my.sharepoint.com/personal/21300543_handong_edu/Documents/2021-2학기/인간공학/인간공학 팀프로젝트/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFFF3B7D-8A74-42AF-9384-5F575A66C341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="381" documentId="8_{AFFF3B7D-8A74-42AF-9384-5F575A66C341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23B35517-01C1-4E3B-AE73-B011DF726D5F}"/>
   <bookViews>
-    <workbookView xWindow="3504" yWindow="768" windowWidth="17280" windowHeight="11292" xr2:uid="{1B286F88-77CE-4FC7-9505-3F6F8F206418}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1B286F88-77CE-4FC7-9505-3F6F8F206418}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>류태동</t>
   </si>
@@ -117,12 +118,81 @@
     <t>NAME</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>A(before-after)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B(before-after)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C(before-after)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균</t>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-task1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-task2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-task3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-task3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-task2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-task1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>difference task1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>difference task2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>difference task3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +221,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -196,33 +291,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -233,6 +395,2846 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>실험 결과</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247556094533739E-2"/>
+          <c:y val="0.20004633157414464"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.63849482356372123"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>평균</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="165100" prst="coolSlant"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="165100" prst="coolSlant"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-735B-4793-B101-47B69A67D7DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="165100" prst="coolSlant"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-735B-4793-B101-47B69A67D7DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="165100" prst="coolSlant"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-735B-4793-B101-47B69A67D7DB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B-task1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A-task1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B-task2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A-task2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B-task3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A-task3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.9570000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2875000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0710000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.604499999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.308500000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.900499999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-735B-4793-B101-47B69A67D7DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1454404672"/>
+        <c:axId val="1454401760"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B-task1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A-task1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B-task2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A-task2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B-task3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A-task3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-735B-4793-B101-47B69A67D7DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>B-task1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A-task1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B-task2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A-task2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B-task3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A-task3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>34.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.549999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-735B-4793-B101-47B69A67D7DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1812693120"/>
+        <c:axId val="1812696448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1454404672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1454401760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1454401760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1454404672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1812696448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1812693120"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1812693120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1812696448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>이전 앱과의 시간 차이</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>평균</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4DDA-43AE-A4C9-DF586E115E8E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>difference task1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>difference task2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>difference task3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.6695000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.5335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.407999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DDA-43AE-A4C9-DF586E115E8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>difference task1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>difference task2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>difference task3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-3.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-37.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5500000000000043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DDA-43AE-A4C9-DF586E115E8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>difference task1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>difference task2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>difference task3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3099999999999987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.539999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4DDA-43AE-A4C9-DF586E115E8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1761089344"/>
+        <c:axId val="1761090176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1761089344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1761090176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1761090176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761089344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>43296</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4441FA9C-68C3-4AF7-A8DC-349E3C10C05D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>491836</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>471054</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>202701</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16794AE4-BCFB-40BB-8617-12AF1F44AA8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.17865</cdr:x>
+      <cdr:y>0.86939</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29604</cdr:x>
+      <cdr:y>0.97084</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB21FA0-4375-49FC-8996-340131E29E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1197444" y="3137173"/>
+          <a:ext cx="786844" cy="366077"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1"/>
+            <a:t>task 1     	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1" baseline="0"/>
+            <a:t>       </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48212</cdr:x>
+      <cdr:y>0.86752</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.59951</cdr:x>
+      <cdr:y>0.96896</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3A34BA-64A4-42BA-AEF0-7F9E1FB8E312}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3231539" y="3130408"/>
+          <a:ext cx="786844" cy="366076"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1"/>
+            <a:t>task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000"/>
+            <a:t> 2     	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0"/>
+            <a:t>       </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7878</cdr:x>
+      <cdr:y>0.87</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.90519</cdr:x>
+      <cdr:y>0.97145</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D73FC6-B5D1-4C66-9F0B-E89294A4EDE1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5280441" y="3139372"/>
+          <a:ext cx="786844" cy="366076"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1"/>
+            <a:t>task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000"/>
+            <a:t> 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000"/>
+            <a:t>     	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0"/>
+            <a:t>       </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,500 +3534,1067 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5404D7-9983-49C3-86AB-3EDC272E7E47}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
+    <col min="8" max="10" width="14.69921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>6.83</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>2.38</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>31.16</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>2.1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>3.03</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>16.39</v>
       </c>
+      <c r="H2" s="4">
+        <f>B2-E2</f>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I2" s="4">
+        <f>C2-F2</f>
+        <v>-0.64999999999999991</v>
+      </c>
+      <c r="J2" s="4">
+        <f>D2-G2</f>
+        <v>14.77</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>4.99</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>12.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>58.37</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>1.4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>28.58</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>23.97</v>
       </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H21" si="0">B3-E3</f>
+        <v>3.5900000000000003</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I21" si="1">C3-F3</f>
+        <v>-16.079999999999998</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="2">D3-G3</f>
+        <v>34.4</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>3.69</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>6.11</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>52.99</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>2.3199999999999998</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>38.270000000000003</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>22.83</v>
       </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.37</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="1"/>
+        <v>-32.160000000000004</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="2"/>
+        <v>30.160000000000004</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>7.49</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>5.58</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>50.74</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>3.36</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>13.76</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>16.510000000000002</v>
       </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1300000000000008</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="1"/>
+        <v>-8.18</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="2"/>
+        <v>34.230000000000004</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>3.69</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>27.55</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>1.08</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>21.44</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>15.23</v>
       </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.61</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="1"/>
+        <v>-17.3</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>12.32</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>4.01</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>6.24</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>42.76</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>1.87</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>5.82</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>21.92</v>
       </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1399999999999997</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>20.839999999999996</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>34.950000000000003</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>6.73</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>62.21</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>1.74</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>2.52</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>10.91</v>
       </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>33.21</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>4.2100000000000009</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>51.3</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>6.22</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>3.49</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>45.37</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>4.7</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>11.24</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>21.34</v>
       </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5199999999999996</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>-7.75</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>24.029999999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>3.69</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>5.13</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>49.04</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>21.61</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>21.67</v>
       </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="1"/>
+        <v>-16.48</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>27.369999999999997</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>4.0199999999999996</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>69.67</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>2.92</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>36.799999999999997</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>35.340000000000003</v>
       </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>5.2799999999999994</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
+        <v>-32.78</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>34.33</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>5.83</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>1.99</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>32</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>4.5</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>12.52</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>17.47</v>
       </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.33</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="1"/>
+        <v>-10.53</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>14.530000000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>4.41</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>2.71</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>47.67</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>2.14</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>26.45</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>18.14</v>
       </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>2.27</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="1"/>
+        <v>-23.74</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>29.53</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>5.26</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>7.23</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>85.49</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>4.66</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>14.86</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>22.95</v>
       </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="1"/>
+        <v>-7.629999999999999</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>62.539999999999992</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>3.81</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>6.24</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>43.28</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>7.7</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>44.07</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>21.73</v>
       </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.89</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
+        <v>-37.83</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>21.55</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>7.41</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>5.92</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>50.94</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>7.92</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>14.77</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>15.33</v>
       </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.50999999999999979</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="1"/>
+        <v>-8.85</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>35.61</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>7.77</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>62.47</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>12.64</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>17.86</v>
       </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>5.76</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="1"/>
+        <v>-8.24</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>44.61</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>7.16</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>20.86</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>53.71</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>1.77</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>14.55</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>23.59</v>
       </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>5.3900000000000006</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="1"/>
+        <v>6.3099999999999987</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>30.12</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>3.87</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>2.31</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>30.73</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>4.7300000000000004</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>8.3699999999999992</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>11.2</v>
       </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.86000000000000032</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="1"/>
+        <v>-6.0599999999999987</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>19.53</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>6.11</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>9.24</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>40.1</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>4.83</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>19.52</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>35.549999999999997</v>
       </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000002</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="1"/>
+        <v>-10.28</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>4.5500000000000043</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>3.75</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>4.2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>49.92</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>1.45</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>21.27</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>28.08</v>
       </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="1"/>
+        <v>-17.07</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>21.840000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="8">
+        <f>AVERAGE(B2:B21)</f>
+        <v>6.9570000000000007</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" ref="C22:G22" si="3">AVERAGE(C2:C21)</f>
+        <v>6.0710000000000006</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="3"/>
+        <v>49.308500000000002</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="3"/>
+        <v>3.2875000000000005</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="3"/>
+        <v>18.604499999999994</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="3"/>
+        <v>20.900499999999997</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" ref="H22" si="4">AVERAGE(H2:H21)</f>
+        <v>3.6695000000000002</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" ref="I22" si="5">AVERAGE(I2:I21)</f>
+        <v>-12.5335</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" ref="J22" si="6">AVERAGE(J2:J21)</f>
+        <v>28.407999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="8">
+        <f>MIN(B2:B21)</f>
+        <v>3.69</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" ref="C23:J23" si="7">MIN(C2:C21)</f>
+        <v>1.99</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="7"/>
+        <v>27.55</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="7"/>
+        <v>1.08</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="7"/>
+        <v>2.52</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="7"/>
+        <v>10.91</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="7"/>
+        <v>-3.89</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="7"/>
+        <v>-37.83</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="7"/>
+        <v>4.5500000000000043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="8">
+        <f>MAX(B2:B21)</f>
+        <v>34.950000000000003</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" ref="C24:J24" si="8">MAX(C2:C21)</f>
+        <v>20.86</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="8"/>
+        <v>85.49</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="8"/>
+        <v>7.92</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="8"/>
+        <v>44.07</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="8"/>
+        <v>35.549999999999997</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="8"/>
+        <v>33.21</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="8"/>
+        <v>6.3099999999999987</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="8"/>
+        <v>62.539999999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="H1:J21">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:J21">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F96EA98-02AE-4DD7-9536-100DE5E81B8B}">
+  <dimension ref="B1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="9" max="9" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8">
+        <v>6.9570000000000007</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3.2875000000000005</v>
+      </c>
+      <c r="E2" s="8">
+        <v>6.0710000000000006</v>
+      </c>
+      <c r="F2" s="8">
+        <v>18.604499999999994</v>
+      </c>
+      <c r="G2" s="8">
+        <v>49.308500000000002</v>
+      </c>
+      <c r="H2" s="8">
+        <v>20.900499999999997</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="9">
+        <v>3.6695000000000002</v>
+      </c>
+      <c r="L2">
+        <v>-12.5335</v>
+      </c>
+      <c r="M2">
+        <v>28.407999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3.69</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1.99</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2.52</v>
+      </c>
+      <c r="G3" s="8">
+        <v>27.55</v>
+      </c>
+      <c r="H3" s="8">
+        <v>10.91</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="9">
+        <v>-3.89</v>
+      </c>
+      <c r="L3">
+        <v>-37.83</v>
+      </c>
+      <c r="M3">
+        <v>4.5500000000000043</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="D4" s="8">
+        <v>7.92</v>
+      </c>
+      <c r="E4" s="8">
+        <v>20.86</v>
+      </c>
+      <c r="F4" s="8">
+        <v>44.07</v>
+      </c>
+      <c r="G4" s="8">
+        <v>85.49</v>
+      </c>
+      <c r="H4" s="8">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="9">
+        <v>33.21</v>
+      </c>
+      <c r="L4">
+        <v>6.3099999999999987</v>
+      </c>
+      <c r="M4">
+        <v>62.539999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="K1:M1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>